--- a/InputFiles/INS/TC06_INS_CancerType-ColorectalCancer.xlsx
+++ b/InputFiles/INS/TC06_INS_CancerType-ColorectalCancer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/radhakrishnang2/Desktop/Automation/Sep2024/Commons_Automation/InputFiles/INS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B94F4D-0C9F-4342-BEE5-A7F41B128751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C16047-2922-C94A-814C-9C8F9FDC4867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="1080" windowWidth="25560" windowHeight="16260" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="12840" yWindow="2780" windowWidth="25560" windowHeight="16260" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -85,7 +85,7 @@
 LEFT JOIN 
     df_publication pub ON prj.project_id = pub."project.project_id"
 WHERE 
-    prg.cancer_type IN ('Colorectal Cancer');</t>
+    prg.cancer_type LIKE '%Colorectal Cancer%';</t>
   </si>
   <si>
     <t>SELECT DISTINCT 
@@ -93,13 +93,16 @@
     prg.website AS "Website",
     prg.focus_area AS "Focus Area",
     prg.cancer_type AS "Cancer Type",
-    prg.data_link AS "Data Location Details"
+ CASE 
+        WHEN prg.data_link IS NOT NULL THEN prg.website       
+        ELSE prg.data_link
+    END AS "Data Location Details"
 FROM 
     df_program prg
 WHERE 
-     prg.cancer_type IN ('Colorectal Cancer')
+     prg.cancer_type LIKE '%Colorectal Cancer%'
 ORDER BY 
-    prg.program_name ASC
+    lower(prg.program_name) ASC
 LIMIT 100;</t>
   </si>
   <si>
@@ -118,9 +121,9 @@
 LEFT JOIN 
     df_publication pub ON prj.project_id = pub."project.project_id"
 WHERE 
-     prg.cancer_type IN ('Colorectal Cancer')
+     prg.cancer_type LIKE '%Colorectal Cancer%'
 ORDER BY 
-    prj.project_id ASC
+    lower(prj.project_id) ASC
 LIMIT 100;</t>
   </si>
   <si>
@@ -141,9 +144,9 @@
 LEFT JOIN 
     df_publication pub ON prj.project_id = pub."project.project_id"
 WHERE 
-    prg.cancer_type IN ('Colorectal Cancer')
+    prg.cancer_type  LIKE '%Colorectal Cancer%'
 ORDER BY 
-    gnt.grant_id ASC
+    lower(gnt.grant_id) ASC
 LIMIT 100;</t>
   </si>
   <si>
@@ -157,6 +160,7 @@
     WHEN pub.relative_citation_ratio = 0 THEN '0'
     WHEN pub.relative_citation_ratio = 7.0 THEN '7'
     WHEN pub.relative_citation_ratio = 2.0 THEN '2'
+  WHEN pub.relative_citation_ratio = 1.0 THEN '1'
     WHEN pub.relative_citation_ratio = ROUND(pub.relative_citation_ratio) THEN CAST(ROUND(pub.relative_citation_ratio) AS VARCHAR) 
     ELSE CAST(ROUND(pub.relative_citation_ratio, 2) AS VARCHAR)
 END AS "Relative Citation Ratio"
@@ -169,9 +173,9 @@
 LEFT JOIN 
     df_grant gnt ON prj.project_id = gnt."project.project_id"
 WHERE 
-     prg.cancer_type IN ('Colorectal Cancer')
+     prg.cancer_type  LIKE '%Colorectal Cancer%'
 ORDER BY 
-    pub.pmid ASC
+    lower(pub.pmid) ASC
 LIMIT 100;</t>
   </si>
 </sst>
@@ -179,9 +183,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -234,11 +245,14 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -598,7 +612,7 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -623,7 +637,7 @@
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="2"/>
@@ -632,7 +646,7 @@
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="2"/>
@@ -645,7 +659,7 @@
       <c r="C7" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>

--- a/InputFiles/INS/TC06_INS_CancerType-ColorectalCancer.xlsx
+++ b/InputFiles/INS/TC06_INS_CancerType-ColorectalCancer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/radhakrishnang2/Desktop/Automation/Sep2024/Commons_Automation/InputFiles/INS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C16047-2922-C94A-814C-9C8F9FDC4867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1FBAD88-FE08-B84C-BCEB-7E90F43C4934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12840" yWindow="2780" windowWidth="25560" windowHeight="16260" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17440" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -88,24 +88,6 @@
     prg.cancer_type LIKE '%Colorectal Cancer%';</t>
   </si>
   <si>
-    <t>SELECT DISTINCT 
-    prg.program_name AS "Program",
-    prg.website AS "Website",
-    prg.focus_area AS "Focus Area",
-    prg.cancer_type AS "Cancer Type",
- CASE 
-        WHEN prg.data_link IS NOT NULL THEN prg.website       
-        ELSE prg.data_link
-    END AS "Data Location Details"
-FROM 
-    df_program prg
-WHERE 
-     prg.cancer_type LIKE '%Colorectal Cancer%'
-ORDER BY 
-    lower(prg.program_name) ASC
-LIMIT 100;</t>
-  </si>
-  <si>
     <t>SELECT DISTINCT
     prj.project_id AS "Project ID", 
     prj.project_title AS "Project Title",
@@ -178,14 +160,42 @@
     lower(pub.pmid) ASC
 LIMIT 100;</t>
   </si>
+  <si>
+    <t>SELECT DISTINCT 
+    prg.program_name AS "Program",
+  CASE
+    WHEN prg.program_link IS NOT NULL THEN prg.program_acronym
+        ELSE prg.program_link
+    END  AS "Website",
+    prg.focus_area AS "Focus Area",
+    prg.cancer_type AS "Cancer Type",
+ CASE 
+        WHEN prg.data_link IS NOT NULL THEN prg.website       
+        ELSE prg.data_link
+    END AS "Data Location Details"
+FROM 
+    df_program prg
+WHERE 
+     prg.cancer_type LIKE '%Colorectal Cancer%'
+ORDER BY 
+    lower(prg.program_name) ASC
+LIMIT 100;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -245,11 +255,14 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -578,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -612,8 +625,8 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>12</v>
+      <c r="B2" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>11</v>
@@ -630,7 +643,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="356" x14ac:dyDescent="0.2">
@@ -638,7 +651,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2"/>
     </row>
@@ -647,7 +660,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2"/>
     </row>
@@ -659,7 +672,7 @@
       <c r="C7" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>

--- a/InputFiles/INS/TC06_INS_CancerType-ColorectalCancer.xlsx
+++ b/InputFiles/INS/TC06_INS_CancerType-ColorectalCancer.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/radhakrishnang2/Desktop/Automation/Sep2024/Commons_Automation/InputFiles/INS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/radhakrishnang2/Desktop/Automation/gayathri26sep/Commons_Automation/InputFiles/INS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1FBAD88-FE08-B84C-BCEB-7E90F43C4934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{109742AC-093D-A546-889F-B647D47BCCEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17440" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
@@ -170,10 +170,9 @@
     prg.focus_area AS "Focus Area",
     prg.cancer_type AS "Cancer Type",
  CASE 
-        WHEN prg.data_link IS NOT NULL THEN prg.website       
+        WHEN prg.data_link IS NOT NULL THEN prg.program_acronym     
         ELSE prg.data_link
-    END AS "Data Location Details"
-FROM 
+    END AS "Data Location Details"FROM 
     df_program prg
 WHERE 
      prg.cancer_type LIKE '%Colorectal Cancer%'

--- a/InputFiles/INS/TC06_INS_CancerType-ColorectalCancer.xlsx
+++ b/InputFiles/INS/TC06_INS_CancerType-ColorectalCancer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/radhakrishnang2/Desktop/Automation/gayathri26sep/Commons_Automation/InputFiles/INS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{109742AC-093D-A546-889F-B647D47BCCEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05DF8C2B-4558-8842-9269-58A7181A722E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17440" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="4440" yWindow="760" windowWidth="25800" windowHeight="17440" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -88,24 +88,23 @@
     prg.cancer_type LIKE '%Colorectal Cancer%';</t>
   </si>
   <si>
-    <t>SELECT DISTINCT
-    prj.project_id AS "Project ID", 
-    prj.project_title AS "Project Title",
-    prj.org_name AS "Organization",
-    prj.project_start_date AS "Project Start Date",
-    prj.project_end_date AS "Project End Date"
-FROM 
-    df_project prj
-LEFT JOIN 
-    df_program prg ON prj."program.program_id" = prg.program_id
-LEFT JOIN 
-    df_grant gnt ON prj.project_id = gnt."project.project_id"
-LEFT JOIN 
-    df_publication pub ON prj.project_id = pub."project.project_id"
+    <t>SELECT DISTINCT 
+    prg.program_name AS "Program",
+  CASE
+    WHEN prg.program_link IS NOT NULL THEN prg.program_acronym
+        ELSE prg.program_link
+    END  AS "Website",
+    prg.focus_area AS "Special Topic",
+    prg.cancer_type AS "Cancer Type",
+ CASE 
+        WHEN prg.data_link IS NOT NULL THEN prg.program_acronym     
+        ELSE prg.data_link
+    END AS "Data Location Details"FROM 
+    df_program prg
 WHERE 
      prg.cancer_type LIKE '%Colorectal Cancer%'
 ORDER BY 
-    lower(prj.project_id) ASC
+    lower(prg.program_name) ASC
 LIMIT 100;</t>
   </si>
   <si>
@@ -116,7 +115,7 @@
     gnt.principal_investigators AS "Principal Investigators",
     gnt.program_officers AS "Program Officers",
     gnt.fiscal_year AS "Fiscal Year",
-    gnt.project_end_date AS "Project End Date"
+    gnt.grant_end_date AS "Project End Date"
 FROM 
     df_grant gnt
 LEFT JOIN 
@@ -134,7 +133,7 @@
   <si>
     <t>SELECT DISTINCT
     pub.pmid AS "PubMed ID", 
-    pub.title AS "Title",
+    pub.publication_title AS "Title",
     pub.authors AS "Authors",
     pub.publication_date AS "Publication Date",
     pub.cited_by AS "Cited By",
@@ -161,23 +160,24 @@
 LIMIT 100;</t>
   </si>
   <si>
-    <t>SELECT DISTINCT 
-    prg.program_name AS "Program",
-  CASE
-    WHEN prg.program_link IS NOT NULL THEN prg.program_acronym
-        ELSE prg.program_link
-    END  AS "Website",
-    prg.focus_area AS "Focus Area",
-    prg.cancer_type AS "Cancer Type",
- CASE 
-        WHEN prg.data_link IS NOT NULL THEN prg.program_acronym     
-        ELSE prg.data_link
-    END AS "Data Location Details"FROM 
-    df_program prg
+    <t>SELECT DISTINCT
+    prj.project_id AS "Project ID", 
+    prj.project_title AS "Project Title",
+    prj.project_org_name AS "Organization",
+    prj.project_start_date AS "Project Start Date",
+    prj.project_end_date AS "Project End Date"
+FROM 
+    df_project prj
+LEFT JOIN 
+    df_program prg ON prj."program.program_id" = prg.program_id
+LEFT JOIN 
+    df_grant gnt ON prj.project_id = gnt."project.project_id"
+LEFT JOIN 
+    df_publication pub ON prj.project_id = pub."project.project_id"
 WHERE 
      prg.cancer_type LIKE '%Colorectal Cancer%'
 ORDER BY 
-    lower(prg.program_name) ASC
+    lower(prj.project_id) ASC
 LIMIT 100;</t>
   </si>
 </sst>
@@ -185,16 +185,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -254,14 +247,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -590,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -624,8 +614,8 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>15</v>
+      <c r="B2" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>11</v>
@@ -641,8 +631,8 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>12</v>
+      <c r="B3" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="356" x14ac:dyDescent="0.2">
@@ -671,7 +661,7 @@
       <c r="C7" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>

--- a/InputFiles/INS/TC06_INS_CancerType-ColorectalCancer.xlsx
+++ b/InputFiles/INS/TC06_INS_CancerType-ColorectalCancer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/radhakrishnang2/Desktop/Automation/gayathri26sep/Commons_Automation/InputFiles/INS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05DF8C2B-4558-8842-9269-58A7181A722E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF557F0-81B5-5047-809C-445EE450D55C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="760" windowWidth="25800" windowHeight="17440" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="36160" yWindow="1660" windowWidth="25800" windowHeight="17440" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -88,26 +88,6 @@
     prg.cancer_type LIKE '%Colorectal Cancer%';</t>
   </si>
   <si>
-    <t>SELECT DISTINCT 
-    prg.program_name AS "Program",
-  CASE
-    WHEN prg.program_link IS NOT NULL THEN prg.program_acronym
-        ELSE prg.program_link
-    END  AS "Website",
-    prg.focus_area AS "Special Topic",
-    prg.cancer_type AS "Cancer Type",
- CASE 
-        WHEN prg.data_link IS NOT NULL THEN prg.program_acronym     
-        ELSE prg.data_link
-    END AS "Data Location Details"FROM 
-    df_program prg
-WHERE 
-     prg.cancer_type LIKE '%Colorectal Cancer%'
-ORDER BY 
-    lower(prg.program_name) ASC
-LIMIT 100;</t>
-  </si>
-  <si>
     <t>SELECT DISTINCT
     gnt.grant_id AS "Grant ID", 
     prj.project_id AS "Project",
@@ -180,14 +160,42 @@
     lower(prj.project_id) ASC
 LIMIT 100;</t>
   </si>
+  <si>
+    <t>SELECT DISTINCT 
+    prg.program_name AS "Program",
+  CASE
+    WHEN prg.program_link IS NOT NULL THEN prg.program_acronym
+        ELSE prg.program_link
+    END  AS "Website",
+    prg.focus_area AS "Special Topic",
+    prg.cancer_type AS "Cancer Type",
+ CASE 
+        WHEN prg.data_link IS NOT NULL THEN prg.program_acronym     
+        ELSE prg.data_link
+    END AS "Data Location Details" 
+FROM 
+    df_program prg
+WHERE 
+     prg.cancer_type LIKE '%Colorectal Cancer%'
+ORDER BY 
+    lower(prg.program_name) ASC
+LIMIT 100;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -247,11 +255,14 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -580,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -614,8 +625,8 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>12</v>
+      <c r="B2" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>11</v>
@@ -632,7 +643,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="356" x14ac:dyDescent="0.2">
@@ -640,7 +651,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2"/>
     </row>
@@ -649,7 +660,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2"/>
     </row>
@@ -661,7 +672,7 @@
       <c r="C7" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
